--- a/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory-strict.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory-strict.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="488">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-16T14:46:54+01:00</t>
+    <t>2024-01-31T12:59:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -282,7 +282,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}ch-lab-obs1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/Observation-resultslab-eu-lab')}ch-elm-expecting-specimen-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification, then Specimen.type must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification') implies specimen.resolve().exists() and specimen.resolve().type.exists() and specimen.resolve().type.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-expecting-organism-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification, then Observation.valueCodeableConcept must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification') implies value.exists() and (value as CodeableConcept).exists() and (value as CodeableConcept).memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-material:Material declared by Observation.code or non-mandatory. {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification').not() implies specimen.resolve().exists() and specimen.resolve().type.exists() and specimen.resolve().type.text.exists() and specimen.resolve().type.text.first()='Material declared by Observation.code or non-mandatory'}ch-elm-patient-name-representation-initial-loinc:If Observation.code is a mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given can must have one character {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code = 'initials' implies subject.resolve().name.first().family.length() = 1 and  subject.resolve().name.first().given.first().length() = 1}ch-elm-patient-name-representation-initial-snomedct:If Observation.code is a mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given can must have one character {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code = 'initials' implies subject.resolve().name.first().family.length() = 1 and  subject.resolve().name.first().given.first().length() = 1}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}ch-lab-obs1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/Observation-resultslab-eu-lab')}ch-elm-expecting-specimen-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification, then Specimen.type must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification') implies specimen.resolve().exists() and specimen.resolve().type.exists() and specimen.resolve().type.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-expecting-organism-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification, then Observation.valueCodeableConcept must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification') implies value.exists() and (value as CodeableConcept).exists() and (value as CodeableConcept).memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-patient-name-representation-initial-loinc:If Observation.code is a mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given can must have one character {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code = 'initials' implies subject.resolve().name.first().family.length() = 1 and  subject.resolve().name.first().given.first().length() = 1}ch-elm-patient-name-representation-initial-snomedct:If Observation.code is a mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given can must have one character {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code = 'initials' implies subject.resolve().name.first().family.length() = 1 and  subject.resolve().name.first().given.first().length() = 1}</t>
   </si>
   <si>
     <t>Event</t>
@@ -642,42 +642,46 @@
     <t>Observation.category</t>
   </si>
   <si>
+    <t xml:space="preserve">CodeableConcept {http://hl7.org/fhir/uv/ips/StructureDefinition/CodeableConcept-uv-ips}
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made. In this profile, fixed to "laboratory".</t>
+  </si>
+  <si>
+    <t>"laboratory" includes laboratory medicine and pathology</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Observation.category:laboratory</t>
+  </si>
+  <si>
+    <t>laboratory</t>
+  </si>
+  <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made. In this profile, fixed to "laboratory".</t>
-  </si>
-  <si>
-    <t>"laboratory" includes laboratory medicine and pathology</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:$this}
-</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Observation.category:laboratory</t>
-  </si>
-  <si>
-    <t>laboratory</t>
   </si>
   <si>
     <t>A code that classifies the general type of observation being made.</t>
@@ -700,13 +704,19 @@
     <t>studyType</t>
   </si>
   <si>
-    <t>http://hl7.eu/fhir/laboratory/ValueSet/lab-studyType-eu-lab</t>
+    <t>The clinical domain of the laboratory performing the observation (e.g. microbiology, toxicology, chemistry)</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-lab-report/ValueSet/ch-lab-report-lab-study-types</t>
   </si>
   <si>
     <t>Observation.category:specialty</t>
   </si>
   <si>
     <t>specialty</t>
+  </si>
+  <si>
+    <t>The way of grouping of the test results into clinically meaningful groups (e.g. liver test; minerals; glucose profiles)</t>
   </si>
   <si>
     <t>http://hl7.eu/fhir/laboratory/ValueSet/lab-specialty-eu-lab</t>
@@ -3853,16 +3863,16 @@
         <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>202</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>205</v>
@@ -3875,7 +3885,7 @@
         <v>83</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>83</v>
@@ -3949,13 +3959,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>200</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>83</v>
@@ -3977,16 +3987,16 @@
         <v>83</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>205</v>
@@ -4018,7 +4028,7 @@
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>83</v>
@@ -4071,13 +4081,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>200</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>83</v>
@@ -4099,16 +4109,16 @@
         <v>83</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>205</v>
@@ -4140,7 +4150,7 @@
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>83</v>
@@ -4193,14 +4203,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4219,19 +4229,19 @@
         <v>83</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>83</v>
@@ -4260,7 +4270,7 @@
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>83</v>
@@ -4278,7 +4288,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>94</v>
@@ -4299,10 +4309,10 @@
         <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>83</v>
@@ -4313,10 +4323,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4339,19 +4349,19 @@
         <v>95</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>83</v>
@@ -4400,7 +4410,7 @@
         <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4415,19 +4425,19 @@
         <v>106</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>83</v>
@@ -4435,10 +4445,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4461,16 +4471,16 @@
         <v>95</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4520,7 +4530,7 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4541,13 +4551,13 @@
         <v>83</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>83</v>
@@ -4555,14 +4565,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4581,19 +4591,19 @@
         <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>83</v>
@@ -4642,7 +4652,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4657,19 +4667,19 @@
         <v>106</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>83</v>
@@ -4677,14 +4687,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4703,19 +4713,19 @@
         <v>95</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
@@ -4752,17 +4762,17 @@
         <v>83</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4777,19 +4787,19 @@
         <v>106</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>83</v>
@@ -4797,16 +4807,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4825,19 +4835,19 @@
         <v>95</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>83</v>
@@ -4886,7 +4896,7 @@
         <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -4898,22 +4908,22 @@
         <v>83</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>83</v>
@@ -4921,10 +4931,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4947,16 +4957,16 @@
         <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5006,7 +5016,7 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5027,13 +5037,13 @@
         <v>83</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>83</v>
@@ -5041,10 +5051,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5067,17 +5077,17 @@
         <v>95</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>83</v>
@@ -5126,7 +5136,7 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5141,19 +5151,19 @@
         <v>106</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>83</v>
@@ -5161,10 +5171,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5187,19 +5197,19 @@
         <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
@@ -5236,7 +5246,7 @@
         <v>83</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
@@ -5246,7 +5256,7 @@
         <v>143</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5255,7 +5265,7 @@
         <v>94</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>106</v>
@@ -5264,30 +5274,30 @@
         <v>83</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>83</v>
@@ -5309,19 +5319,19 @@
         <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>83</v>
@@ -5370,7 +5380,7 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5379,7 +5389,7 @@
         <v>94</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>106</v>
@@ -5388,30 +5398,30 @@
         <v>83</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>83</v>
@@ -5433,19 +5443,19 @@
         <v>83</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>83</v>
@@ -5474,7 +5484,7 @@
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>83</v>
@@ -5492,7 +5502,7 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5513,10 +5523,10 @@
         <v>83</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>83</v>
@@ -5527,10 +5537,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5553,19 +5563,19 @@
         <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
@@ -5590,13 +5600,13 @@
         <v>83</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>83</v>
@@ -5614,7 +5624,7 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5623,7 +5633,7 @@
         <v>94</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>106</v>
@@ -5638,7 +5648,7 @@
         <v>137</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>83</v>
@@ -5649,14 +5659,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5675,19 +5685,19 @@
         <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>83</v>
@@ -5716,25 +5726,25 @@
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5755,10 +5765,10 @@
         <v>83</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>83</v>
@@ -5769,10 +5779,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5795,19 +5805,19 @@
         <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>83</v>
@@ -5856,7 +5866,7 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -5877,10 +5887,10 @@
         <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
@@ -5891,10 +5901,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5917,16 +5927,16 @@
         <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5952,13 +5962,13 @@
         <v>83</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>83</v>
@@ -5976,7 +5986,7 @@
         <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -5994,27 +6004,27 @@
         <v>83</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6037,19 +6047,19 @@
         <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>83</v>
@@ -6074,13 +6084,13 @@
         <v>83</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>83</v>
@@ -6098,7 +6108,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6119,10 +6129,10 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6133,10 +6143,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6159,16 +6169,16 @@
         <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6218,7 +6228,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6236,27 +6246,27 @@
         <v>83</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6279,16 +6289,16 @@
         <v>83</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6338,7 +6348,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6356,27 +6366,27 @@
         <v>83</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6399,19 +6409,19 @@
         <v>83</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
@@ -6460,7 +6470,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6472,7 +6482,7 @@
         <v>83</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>83</v>
@@ -6481,10 +6491,10 @@
         <v>83</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -6495,10 +6505,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6521,13 +6531,13 @@
         <v>83</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6578,7 +6588,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6602,7 +6612,7 @@
         <v>83</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
@@ -6613,10 +6623,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6642,10 +6652,10 @@
         <v>139</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>156</v>
@@ -6698,7 +6708,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6722,7 +6732,7 @@
         <v>83</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
@@ -6733,14 +6743,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6762,10 +6772,10 @@
         <v>139</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>156</v>
@@ -6820,7 +6830,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -6855,10 +6865,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6881,13 +6891,13 @@
         <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6938,7 +6948,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -6947,7 +6957,7 @@
         <v>94</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>106</v>
@@ -6959,10 +6969,10 @@
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
@@ -6973,10 +6983,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6999,13 +7009,13 @@
         <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7056,7 +7066,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7065,7 +7075,7 @@
         <v>94</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>106</v>
@@ -7077,10 +7087,10 @@
         <v>83</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7091,10 +7101,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7117,19 +7127,19 @@
         <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>83</v>
@@ -7157,10 +7167,10 @@
         <v>118</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>83</v>
@@ -7178,7 +7188,7 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7196,13 +7206,13 @@
         <v>83</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
@@ -7213,10 +7223,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7239,19 +7249,19 @@
         <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>83</v>
@@ -7276,13 +7286,13 @@
         <v>83</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>83</v>
@@ -7300,7 +7310,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7318,13 +7328,13 @@
         <v>83</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
@@ -7335,10 +7345,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7361,17 +7371,17 @@
         <v>83</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>83</v>
@@ -7420,7 +7430,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7444,7 +7454,7 @@
         <v>83</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -7455,10 +7465,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7481,13 +7491,13 @@
         <v>83</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7538,7 +7548,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7559,10 +7569,10 @@
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
@@ -7573,10 +7583,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7599,16 +7609,16 @@
         <v>95</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7658,7 +7668,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7679,10 +7689,10 @@
         <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -7693,10 +7703,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7719,16 +7729,16 @@
         <v>95</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7778,7 +7788,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7799,10 +7809,10 @@
         <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -7813,10 +7823,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7839,19 +7849,19 @@
         <v>95</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
@@ -7900,7 +7910,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -7921,10 +7931,10 @@
         <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -7935,10 +7945,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7961,13 +7971,13 @@
         <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8018,7 +8028,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8042,7 +8052,7 @@
         <v>83</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
@@ -8053,10 +8063,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8082,10 +8092,10 @@
         <v>139</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>156</v>
@@ -8138,7 +8148,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8162,7 +8172,7 @@
         <v>83</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>83</v>
@@ -8173,14 +8183,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8202,10 +8212,10 @@
         <v>139</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>156</v>
@@ -8260,7 +8270,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8295,10 +8305,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8321,19 +8331,19 @@
         <v>95</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
@@ -8358,13 +8368,13 @@
         <v>83</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>83</v>
@@ -8382,7 +8392,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>94</v>
@@ -8400,16 +8410,16 @@
         <v>83</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>83</v>
@@ -8417,10 +8427,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8443,19 +8453,19 @@
         <v>95</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -8504,7 +8514,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8522,27 +8532,27 @@
         <v>83</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8565,19 +8575,19 @@
         <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
@@ -8602,13 +8612,13 @@
         <v>83</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>83</v>
@@ -8626,7 +8636,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8635,7 +8645,7 @@
         <v>94</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>106</v>
@@ -8650,7 +8660,7 @@
         <v>137</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -8661,14 +8671,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8687,19 +8697,19 @@
         <v>83</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
@@ -8724,13 +8734,13 @@
         <v>83</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>83</v>
@@ -8748,7 +8758,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -8766,27 +8776,27 @@
         <v>83</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8812,16 +8822,16 @@
         <v>84</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
@@ -8870,7 +8880,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -8891,10 +8901,10 @@
         <v>83</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>83</v>

--- a/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory-strict.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory-strict.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T12:59:55+01:00</t>
+    <t>2024-02-27T13:26:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -282,7 +282,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}ch-lab-obs1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/Observation-resultslab-eu-lab')}ch-elm-expecting-specimen-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification, then Specimen.type must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification') implies specimen.resolve().exists() and specimen.resolve().type.exists() and specimen.resolve().type.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-expecting-organism-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification, then Observation.valueCodeableConcept must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification') implies value.exists() and (value as CodeableConcept).exists() and (value as CodeableConcept).memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-patient-name-representation-initial-loinc:If Observation.code is a mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given can must have one character {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code = 'initials' implies subject.resolve().name.first().family.length() = 1 and  subject.resolve().name.first().given.first().length() = 1}ch-elm-patient-name-representation-initial-snomedct:If Observation.code is a mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given can must have one character {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code = 'initials' implies subject.resolve().name.first().family.length() = 1 and  subject.resolve().name.first().given.first().length() = 1}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}ch-lab-obs1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/Observation-resultslab-eu-lab')}ch-elm-expecting-specimen-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification, then Specimen.type must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification') implies (specimen.resolve().exists() and specimen.resolve().type.exists() and specimen.resolve().type.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-expecting-organism-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification, then Observation.valueCodeableConcept must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification') implies (value.exists() and (value as CodeableConcept).exists() and (value as CodeableConcept).memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-interpretation-code-loinc:If Observation.code is a mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-interpretation-code-snomedct:If Observation.code is a mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code)}ch-elm-patient-name-representation-initial-loinc:If Observation.code is a mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given can must have one character {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code = 'initials' implies (subject.resolve().name.first().family.length() = 1 and  subject.resolve().name.first().given.first().length() = 1))}ch-elm-patient-name-representation-initial-snomedct:If Observation.code is a mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given can must have one character {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code = 'initials' implies (subject.resolve().name.first().family.length() = 1 and  subject.resolve().name.first().given.first().length() = 1))}</t>
   </si>
   <si>
     <t>Event</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory-strict.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory-strict.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T13:26:20+01:00</t>
+    <t>2024-03-28T10:46:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory-strict.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory-strict.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T10:46:20+01:00</t>
+    <t>2024-05-17T13:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Federal Office of Public Health FOPH (https://www.bag.admin.ch/bag/en/home/das-bag/kontakt-standort.html)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -282,7 +282,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}ch-lab-obs1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/Observation-resultslab-eu-lab')}ch-elm-expecting-specimen-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification, then Specimen.type must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification') implies (specimen.resolve().exists() and specimen.resolve().type.exists() and specimen.resolve().type.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-expecting-organism-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification, then Observation.valueCodeableConcept must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification') implies (value.exists() and (value as CodeableConcept).exists() and (value as CodeableConcept).memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-interpretation-code-loinc:If Observation.code is a mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-interpretation-code-snomedct:If Observation.code is a mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code)}ch-elm-patient-name-representation-initial-loinc:If Observation.code is a mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given can must have one character {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code = 'initials' implies (subject.resolve().name.first().family.length() = 1 and  subject.resolve().name.first().given.first().length() = 1))}ch-elm-patient-name-representation-initial-snomedct:If Observation.code is a mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given can must have one character {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code = 'initials' implies (subject.resolve().name.first().family.length() = 1 and  subject.resolve().name.first().given.first().length() = 1))}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}ch-lab-obs1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/Observation-resultslab-eu-lab')}ch-elm-expecting-specimen-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification, then Specimen.type must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification') implies (specimen.resolve().exists() and specimen.resolve().type.exists() and specimen.resolve().type.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-expecting-organism-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification, then Observation.valueCodeableConcept must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification') implies (value.exists() and (value as CodeableConcept).exists() and (value as CodeableConcept).memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-interpretation-code-loinc:If Observation.code is a mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-interpretation-code-snomedct:If Observation.code is a mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code)}ch-elm-patient-name-representation-initial-loinc:If Observation.code is a mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given can must have one character {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code = 'initials' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials')))}ch-elm-patient-name-representation-initial-snomedct:If Observation.code is a mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given can must have one character {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code = 'initials' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials')))}ch-elm-patient-name-representation-initial-or-vctcode-loinc:If Observation.code is a mapped to initials or vctcode in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given can must have one character {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code = 'initials-or-vctcode' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials') or subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientVCT')))}ch-elm-patient-name-representation-initial-or-vctcode-snomedct:If Observation.code is a mapped to initials or vctcode in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given can must have one character {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code = 'initials-or-vctcode' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials') or subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientVCT')))}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1864,17 +1864,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.4140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="25.80859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.25" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="25.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="107.140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="111.11328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1883,28 +1883,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.7265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="69.88671875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="68.19921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="245.78125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="102.73828125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="38.60546875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory-strict.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory-strict.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:32:20+00:00</t>
+    <t>2024-06-17T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory-strict.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory-strict.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T16:32:03+00:00</t>
+    <t>2024-09-24T11:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory-strict.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory-strict.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4776" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4776" uniqueCount="663">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T11:18:39+00:00</t>
+    <t>2024-10-31T11:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -282,7 +282,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}eu-lab-1:If observation status is other then "registered" or "cancelled", at least one of these Observation elements shall be provided:  "value", "dataAbsentReason", "hasMember" or "component" {(status in ('registered'|'cancelled')) or value.exists() or hasMember.exists() or component.exists() or dataAbsentReason.exists()}eu-lab-2:If observation has components and observation status is other then "registered" or "cancelled", at least one of these Observation.component elements shall be provided:  "value" or "dataAbsentReason" {component.exists() implies (status in ('registered'|'cancelled')) or component.value.exists() or component.dataAbsentReason.exists()}ch-elm-expecting-specimen-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification, then Specimen.type must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification') implies (specimen.resolve().exists() and specimen.resolve().type.exists() and specimen.resolve().type.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-expecting-organism-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification, then Observation.valueCodeableConcept must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification') implies (value.exists() and (value as CodeableConcept).exists() and (value as CodeableConcept).memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-interpretation-code-loinc:If Observation.code is mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-interpretation-code-snomedct:If Observation.code is mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code)}ch-elm-patient-name-representation-initial-loinc:If Observation.code is mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given must have one character and the following elements must not be provided: patient.telecom, patient.address.line {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code = 'initials' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials')))}ch-elm-patient-name-representation-initial-snomedct:If Observation.code is mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given must have one character and the following elements must not be provided: patient.telecom, patient.address.line {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code = 'initials' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials')))}ch-elm-patient-name-representation-initial-or-vctcode-loinc:If Observation.code is mapped to initials or vctcode in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name family and given must have one character or - in case of a VCT patient - must be masked and the following elements must not be provided: patient.telecom, patient.address.line. {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code = 'initials-or-vctcode' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials') or subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientVCT')))}ch-elm-patient-name-representation-initial-or-vctcode-snomedct:If Observation.code is mapped to initials or vctcode in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name family and given must have one character or - in case of a VCT patient - must be masked and the following elements must not be provided: patient.telecom, patient.address.line. {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code = 'initials-or-vctcode' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials') or subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientVCT')))}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}eu-lab-1:If observation status is other then "registered" or "cancelled", at least one of these Observation elements shall be provided:  "value", "dataAbsentReason", "hasMember" or "component" {(status in ('registered'|'cancelled')) or value.exists() or hasMember.exists() or component.exists() or dataAbsentReason.exists()}eu-lab-2:If observation has components and observation status is other then "registered" or "cancelled", at least one of these Observation.component elements shall be provided:  "value" or "dataAbsentReason" {component.exists() implies (status in ('registered'|'cancelled')) or component.value.exists() or component.dataAbsentReason.exists()}ch-elm-expecting-specimen-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification, then Specimen.type must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification') implies (specimen.resolve().exists() and specimen.resolve().type.exists() and specimen.resolve().type.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-expecting-organism-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification, then Observation.valueCodeableConcept must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification') implies (value.exists() and (value as CodeableConcept).exists() and (value as CodeableConcept).memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-interpretation-code-loinc:If Observation.code is mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-interpretation-code-snomedct:If Observation.code is mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code)}ch-elm-patient-name-representation-initial-loinc:If Observation.code is mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given must have one character and the following elements must not be provided: patient.telecom, patient.address.line {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code = 'initials' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials')))}ch-elm-patient-name-representation-initial-snomedct:If Observation.code is mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given must have one character and the following elements must not be provided: patient.telecom, patient.address.line {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code = 'initials' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials')))}ch-elm-patient-name-representation-initial-or-vctcode-loinc:If Observation.code is mapped to initials or vctcode in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name family and given must have one character or - in case of a VCT patient - must be masked and the following elements must not be provided: patient.telecom, patient.address.line. {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code = 'initials-or-vctcode' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials') or subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientVCT')))}ch-elm-patient-name-representation-initial-or-vctcode-snomedct:If Observation.code is mapped to initials or vctcode in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name family and given must have one character or - in case of a VCT patient - must be masked and the following elements must not be provided: patient.telecom, patient.address.line. {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code = 'initials-or-vctcode' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials') or subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientVCT')))}ch-elm-observation-profile-loinc:If Observation.code is mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile', then the observation must be conform to the mapped profile {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).exists() implies conformsTo('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-observation-profile-snomedct:If Observation.code is mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile', then the observation must be conform to the mapped profile {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).exists() implies conformsTo('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code)}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1366,6 +1366,10 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
+    <t>string
+QuantityCodeableConcept</t>
+  </si>
+  <si>
     <t>Actual result</t>
   </si>
   <si>
@@ -1394,6 +1398,45 @@
     <t>363714003 |Interprets|</t>
   </si>
   <si>
+    <t>Observation.value[x]:valueString</t>
+  </si>
+  <si>
+    <t>valueString</t>
+  </si>
+  <si>
+    <t>String if required by leading code, see also 'Guidance - Laboratory Result'</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity</t>
+  </si>
+  <si>
+    <t>valueQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {http://hl7.eu/fhir/laboratory/StructureDefinition/Quantity-eu-lab}
+</t>
+  </si>
+  <si>
+    <t>Quantity if required by leading code, see also 'Guidance - Laboratory Result'</t>
+  </si>
+  <si>
+    <t>A measured amount (or an amount that can potentially be measured) and uncertainty of the measurement. Note that measured amounts include amounts that are not precisely quantified, including amounts involving arbitrary units and floating currencies.
+This profile imposes that the code system for units be UCUM.</t>
+  </si>
+  <si>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
+  </si>
+  <si>
+    <t>SN (see also Range) or CQ</t>
+  </si>
+  <si>
+    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
+  </si>
+  <si>
     <t>Observation.value[x]:valueCodeableConcept</t>
   </si>
   <si>
@@ -1404,12 +1447,6 @@
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-coded-values-laboratory</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueString</t>
-  </si>
-  <si>
-    <t>valueString</t>
   </si>
   <si>
     <t>Observation.value[x]:valueRange</t>
@@ -1491,36 +1528,6 @@
   <si>
     <t xml:space="preserve">Period
 </t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity</t>
-  </si>
-  <si>
-    <t>valueQuantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {http://hl7.eu/fhir/laboratory/StructureDefinition/Quantity-eu-lab}
-</t>
-  </si>
-  <si>
-    <t>A measured amount using UCUM</t>
-  </si>
-  <si>
-    <t>A measured amount (or an amount that can potentially be measured) and uncertainty of the measurement. Note that measured amounts include amounts that are not precisely quantified, including amounts involving arbitrary units and floating currencies.
-This profile imposes that the code system for units be UCUM.</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -2044,6 +2051,9 @@
   </si>
   <si>
     <t>Observation.component.value[x]:valueQuantity</t>
+  </si>
+  <si>
+    <t>A measured amount using UCUM</t>
   </si>
   <si>
     <t>Observation.component.value[x]:valueCodeableConcept</t>
@@ -11345,19 +11355,19 @@
         <v>95</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>284</v>
+        <v>429</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>83</v>
@@ -11413,7 +11423,7 @@
         <v>94</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>106</v>
@@ -11422,30 +11432,30 @@
         <v>83</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>428</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>83</v>
@@ -11464,22 +11474,22 @@
         <v>83</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>309</v>
+        <v>159</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>311</v>
+        <v>431</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>312</v>
+        <v>432</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>83</v>
@@ -11504,11 +11514,13 @@
         <v>83</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="Y76" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z76" t="s" s="2">
-        <v>441</v>
+        <v>83</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>83</v>
@@ -11535,7 +11547,7 @@
         <v>94</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>156</v>
+        <v>434</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>106</v>
@@ -11544,19 +11556,19 @@
         <v>83</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>83</v>
+        <v>435</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>315</v>
+        <v>436</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>316</v>
+        <v>437</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>83</v>
+        <v>438</v>
       </c>
     </row>
     <row r="77">
@@ -11586,22 +11598,22 @@
         <v>83</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>159</v>
+        <v>444</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>83</v>
@@ -11659,39 +11671,39 @@
         <v>94</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>433</v>
+        <v>156</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>106</v>
+        <v>448</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>434</v>
+        <v>83</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>437</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>428</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>83</v>
@@ -11713,19 +11725,19 @@
         <v>83</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>446</v>
+        <v>309</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>448</v>
+        <v>311</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>449</v>
+        <v>312</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>83</v>
@@ -11750,13 +11762,11 @@
         <v>83</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="Y78" s="2"/>
       <c r="Z78" t="s" s="2">
-        <v>83</v>
+        <v>454</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>83</v>
@@ -11786,7 +11796,7 @@
         <v>156</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>450</v>
+        <v>106</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>83</v>
@@ -11795,10 +11805,10 @@
         <v>83</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>451</v>
+        <v>315</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>452</v>
+        <v>316</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>83</v>
@@ -11809,13 +11819,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>428</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>83</v>
@@ -11837,19 +11847,19 @@
         <v>83</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>83</v>
@@ -11910,7 +11920,7 @@
         <v>156</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>83</v>
@@ -11919,10 +11929,10 @@
         <v>83</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>137</v>
+        <v>462</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>83</v>
@@ -11933,13 +11943,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>428</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>83</v>
@@ -11958,22 +11968,22 @@
         <v>83</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>429</v>
+        <v>467</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>431</v>
+        <v>469</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>83</v>
@@ -12031,39 +12041,39 @@
         <v>94</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>433</v>
+        <v>156</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>106</v>
+        <v>470</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>434</v>
+        <v>83</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>435</v>
+        <v>137</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>436</v>
+        <v>471</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>437</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>428</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>83</v>
@@ -12085,19 +12095,19 @@
         <v>95</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>374</v>
+        <v>474</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>83</v>
@@ -12155,7 +12165,7 @@
         <v>94</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>106</v>
@@ -12164,30 +12174,30 @@
         <v>83</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>428</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>83</v>
@@ -12209,19 +12219,19 @@
         <v>95</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>468</v>
+        <v>374</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>83</v>
@@ -12279,7 +12289,7 @@
         <v>94</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>106</v>
@@ -12288,30 +12298,30 @@
         <v>83</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>428</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>83</v>
@@ -12330,22 +12340,22 @@
         <v>83</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>472</v>
+        <v>430</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>473</v>
+        <v>431</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>474</v>
+        <v>432</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>83</v>
@@ -12403,36 +12413,36 @@
         <v>94</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>156</v>
+        <v>434</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>475</v>
+        <v>106</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>83</v>
+        <v>435</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>477</v>
+        <v>437</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>83</v>
+        <v>438</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12458,16 +12468,16 @@
         <v>284</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>83</v>
@@ -12495,10 +12505,10 @@
         <v>339</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>83</v>
@@ -12516,7 +12526,7 @@
         <v>83</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
@@ -12525,7 +12535,7 @@
         <v>94</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>106</v>
@@ -12540,7 +12550,7 @@
         <v>137</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>83</v>
@@ -12551,14 +12561,14 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12580,7 +12590,7 @@
         <v>309</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>311</v>
@@ -12589,7 +12599,7 @@
         <v>312</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>83</v>
@@ -12617,10 +12627,10 @@
         <v>339</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>83</v>
@@ -12638,7 +12648,7 @@
         <v>83</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
@@ -12673,10 +12683,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12699,19 +12709,19 @@
         <v>83</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>83</v>
@@ -12760,7 +12770,7 @@
         <v>83</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>81</v>
@@ -12781,10 +12791,10 @@
         <v>83</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>83</v>
@@ -12795,10 +12805,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12824,13 +12834,13 @@
         <v>284</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12856,13 +12866,13 @@
         <v>83</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>83</v>
@@ -12880,7 +12890,7 @@
         <v>83</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>81</v>
@@ -12898,27 +12908,27 @@
         <v>83</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12944,16 +12954,16 @@
         <v>284</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>83</v>
@@ -12982,7 +12992,7 @@
       </c>
       <c r="Y88" s="2"/>
       <c r="Z88" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>83</v>
@@ -13000,7 +13010,7 @@
         <v>83</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
@@ -13021,10 +13031,10 @@
         <v>83</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>83</v>
@@ -13035,10 +13045,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13061,16 +13071,16 @@
         <v>83</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -13120,7 +13130,7 @@
         <v>83</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>81</v>
@@ -13138,27 +13148,27 @@
         <v>83</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13181,16 +13191,16 @@
         <v>83</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13240,7 +13250,7 @@
         <v>83</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
@@ -13258,27 +13268,27 @@
         <v>83</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13301,19 +13311,19 @@
         <v>83</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>83</v>
@@ -13362,7 +13372,7 @@
         <v>83</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>81</v>
@@ -13374,7 +13384,7 @@
         <v>83</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>83</v>
@@ -13383,10 +13393,10 @@
         <v>83</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>83</v>
@@ -13397,10 +13407,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13515,10 +13525,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13635,14 +13645,14 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13664,10 +13674,10 @@
         <v>139</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="N94" t="s" s="2">
         <v>169</v>
@@ -13722,7 +13732,7 @@
         <v>83</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>81</v>
@@ -13757,10 +13767,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13783,13 +13793,13 @@
         <v>83</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13840,7 +13850,7 @@
         <v>83</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
@@ -13849,7 +13859,7 @@
         <v>94</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>106</v>
@@ -13861,10 +13871,10 @@
         <v>83</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>83</v>
@@ -13875,10 +13885,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13901,13 +13911,13 @@
         <v>83</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13958,7 +13968,7 @@
         <v>83</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>81</v>
@@ -13967,7 +13977,7 @@
         <v>94</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>106</v>
@@ -13979,10 +13989,10 @@
         <v>83</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>83</v>
@@ -13993,10 +14003,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14022,16 +14032,16 @@
         <v>284</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>83</v>
@@ -14059,10 +14069,10 @@
         <v>118</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>83</v>
@@ -14080,7 +14090,7 @@
         <v>83</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>81</v>
@@ -14098,13 +14108,13 @@
         <v>83</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>83</v>
@@ -14115,10 +14125,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14144,16 +14154,16 @@
         <v>284</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>83</v>
@@ -14178,13 +14188,13 @@
         <v>83</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>83</v>
@@ -14202,7 +14212,7 @@
         <v>83</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
@@ -14220,13 +14230,13 @@
         <v>83</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>83</v>
@@ -14237,10 +14247,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14263,17 +14273,17 @@
         <v>83</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>83</v>
@@ -14322,7 +14332,7 @@
         <v>83</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
@@ -14346,7 +14356,7 @@
         <v>83</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>83</v>
@@ -14357,10 +14367,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14386,10 +14396,10 @@
         <v>159</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14440,7 +14450,7 @@
         <v>83</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>81</v>
@@ -14461,10 +14471,10 @@
         <v>83</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>83</v>
@@ -14475,10 +14485,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14501,16 +14511,16 @@
         <v>95</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14560,7 +14570,7 @@
         <v>83</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>81</v>
@@ -14581,10 +14591,10 @@
         <v>83</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>83</v>
@@ -14595,10 +14605,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14621,16 +14631,16 @@
         <v>95</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14680,7 +14690,7 @@
         <v>83</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>81</v>
@@ -14701,10 +14711,10 @@
         <v>83</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>83</v>
@@ -14715,10 +14725,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14741,19 +14751,19 @@
         <v>95</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>83</v>
@@ -14802,7 +14812,7 @@
         <v>83</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>81</v>
@@ -14823,10 +14833,10 @@
         <v>83</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>83</v>
@@ -14837,10 +14847,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14955,10 +14965,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15071,10 +15081,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C106" t="s" s="2">
         <v>228</v>
@@ -15191,10 +15201,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15309,10 +15319,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15427,10 +15437,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15547,10 +15557,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15665,14 +15675,14 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -15694,10 +15704,10 @@
         <v>139</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="N111" t="s" s="2">
         <v>169</v>
@@ -15752,7 +15762,7 @@
         <v>83</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>81</v>
@@ -15787,10 +15797,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15816,13 +15826,13 @@
         <v>284</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>313</v>
@@ -15850,13 +15860,13 @@
         <v>83</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>83</v>
@@ -15874,7 +15884,7 @@
         <v>83</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>94</v>
@@ -15892,16 +15902,16 @@
         <v>83</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>359</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AP112" t="s" s="2">
         <v>83</v>
@@ -15909,10 +15919,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15935,19 +15945,19 @@
         <v>95</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>83</v>
@@ -15994,7 +16004,7 @@
         <v>143</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>81</v>
@@ -16012,30 +16022,30 @@
         <v>83</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>83</v>
@@ -16060,16 +16070,16 @@
         <v>159</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>83</v>
@@ -16118,7 +16128,7 @@
         <v>83</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>81</v>
@@ -16136,30 +16146,30 @@
         <v>83</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>83</v>
@@ -16181,19 +16191,19 @@
         <v>83</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>83</v>
@@ -16242,7 +16252,7 @@
         <v>83</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>81</v>
@@ -16254,7 +16264,7 @@
         <v>156</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>83</v>
@@ -16263,10 +16273,10 @@
         <v>83</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>83</v>
@@ -16277,13 +16287,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="D116" t="s" s="2">
         <v>83</v>
@@ -16305,19 +16315,19 @@
         <v>83</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>83</v>
@@ -16366,7 +16376,7 @@
         <v>83</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>81</v>
@@ -16378,7 +16388,7 @@
         <v>156</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>83</v>
@@ -16390,7 +16400,7 @@
         <v>137</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>83</v>
@@ -16401,13 +16411,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>83</v>
@@ -16429,19 +16439,19 @@
         <v>95</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>83</v>
@@ -16490,7 +16500,7 @@
         <v>83</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>81</v>
@@ -16508,30 +16518,30 @@
         <v>83</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP117" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>83</v>
@@ -16556,16 +16566,16 @@
         <v>374</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>83</v>
@@ -16614,7 +16624,7 @@
         <v>83</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>81</v>
@@ -16632,30 +16642,30 @@
         <v>83</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP118" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="D119" t="s" s="2">
         <v>83</v>
@@ -16677,19 +16687,19 @@
         <v>95</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>83</v>
@@ -16738,7 +16748,7 @@
         <v>83</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>81</v>
@@ -16756,30 +16766,30 @@
         <v>83</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP119" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>83</v>
@@ -16801,19 +16811,19 @@
         <v>83</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>472</v>
+        <v>646</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>83</v>
@@ -16862,7 +16872,7 @@
         <v>83</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>81</v>
@@ -16874,7 +16884,7 @@
         <v>156</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>475</v>
+        <v>448</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>83</v>
@@ -16883,10 +16893,10 @@
         <v>83</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>83</v>
@@ -16897,13 +16907,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>83</v>
@@ -16928,16 +16938,16 @@
         <v>284</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>83</v>
@@ -16966,7 +16976,7 @@
       </c>
       <c r="Y121" s="2"/>
       <c r="Z121" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>83</v>
@@ -16984,7 +16994,7 @@
         <v>83</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>81</v>
@@ -17002,27 +17012,27 @@
         <v>83</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP121" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17048,16 +17058,16 @@
         <v>284</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>83</v>
@@ -17085,10 +17095,10 @@
         <v>339</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>83</v>
@@ -17106,7 +17116,7 @@
         <v>83</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>81</v>
@@ -17115,7 +17125,7 @@
         <v>94</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>106</v>
@@ -17130,7 +17140,7 @@
         <v>137</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>83</v>
@@ -17141,14 +17151,14 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
@@ -17170,16 +17180,16 @@
         <v>284</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>83</v>
@@ -17207,10 +17217,10 @@
         <v>339</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="Z123" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>83</v>
@@ -17228,7 +17238,7 @@
         <v>83</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>81</v>
@@ -17246,27 +17256,27 @@
         <v>83</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP123" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17292,16 +17302,16 @@
         <v>84</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>83</v>
@@ -17350,7 +17360,7 @@
         <v>83</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>81</v>
@@ -17371,10 +17381,10 @@
         <v>83</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>83</v>

--- a/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory-strict.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory-strict.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -282,7 +282,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}eu-lab-1:If observation status is other then "registered" or "cancelled", at least one of these Observation elements shall be provided:  "value", "dataAbsentReason", "hasMember" or "component" {(status in ('registered'|'cancelled')) or value.exists() or hasMember.exists() or component.exists() or dataAbsentReason.exists()}eu-lab-2:If observation has components and observation status is other then "registered" or "cancelled", at least one of these Observation.component elements shall be provided:  "value" or "dataAbsentReason" {component.exists() implies (status in ('registered'|'cancelled')) or component.value.exists() or component.dataAbsentReason.exists()}ch-elm-expecting-specimen-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification, then Specimen.type must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification') implies (specimen.resolve().exists() and specimen.resolve().type.exists() and specimen.resolve().type.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-expecting-organism-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification, then Observation.valueCodeableConcept must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification') implies (value.exists() and (value as CodeableConcept).exists() and (value as CodeableConcept).memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-interpretation-code-loinc:If Observation.code is mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-interpretation-code-snomedct:If Observation.code is mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code)}ch-elm-patient-name-representation-initial-loinc:If Observation.code is mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given must have one character and the following elements must not be provided: patient.telecom, patient.address.line {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code = 'initials' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials')))}ch-elm-patient-name-representation-initial-snomedct:If Observation.code is mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given must have one character and the following elements must not be provided: patient.telecom, patient.address.line {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code = 'initials' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials')))}ch-elm-patient-name-representation-initial-or-vctcode-loinc:If Observation.code is mapped to initials or vctcode in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name family and given must have one character or - in case of a VCT patient - must be masked and the following elements must not be provided: patient.telecom, patient.address.line. {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code = 'initials-or-vctcode' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials') or subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientVCT')))}ch-elm-patient-name-representation-initial-or-vctcode-snomedct:If Observation.code is mapped to initials or vctcode in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name family and given must have one character or - in case of a VCT patient - must be masked and the following elements must not be provided: patient.telecom, patient.address.line. {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code = 'initials-or-vctcode' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials') or subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientVCT')))}ch-elm-observation-profile-loinc:If Observation.code is mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile', then the observation must be conform to the mapped profile {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).exists() implies conformsTo('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-observation-profile-snomedct:If Observation.code is mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile', then the observation must be conform to the mapped profile {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).exists() implies conformsTo('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code)}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}eu-lab-1:If observation status is other then "registered" or "cancelled", at least one of these Observation elements shall be provided:  "value", "dataAbsentReason", "hasMember" or "component" {(status in ('registered'|'cancelled')) or value.exists() or hasMember.exists() or component.exists() or dataAbsentReason.exists()}eu-lab-2:If observation has components and observation status is other then "registered" or "cancelled", at least one of these Observation.component elements shall be provided:  "value" or "dataAbsentReason" {component.exists() implies (status in ('registered'|'cancelled')) or component.value.exists() or component.dataAbsentReason.exists()}ch-elm-expecting-specimen-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification, then Specimen.type must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification') implies (specimen.resolve().exists() and specimen.resolve().type.exists() and specimen.resolve().type.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-expecting-organism-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification, then Observation.valueCodeableConcept must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification') implies (value.exists() and (value as CodeableConcept).exists() and (value as CodeableConcept).memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-interpretation-code-loinc:If Observation.code is mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-interpretation-code-snomedct:If Observation.code is mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code)}ch-elm-patient-name-representation-initial-loinc:If Observation.code is mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given must have one character and the following elements must not be provided: patient.telecom, patient.address.line {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code = 'initials' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials')))}ch-elm-patient-name-representation-initial-snomedct:If Observation.code is mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given must have one character and the following elements must not be provided: patient.telecom, patient.address.line {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code = 'initials' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials')))}ch-elm-patient-name-representation-initial-or-vctcode-loinc:If Observation.code is mapped to initials or vctcode in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name family and given must have one character or - in case of a VCT patient - must be masked and the following elements must not be provided: patient.telecom, patient.address.line. {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code = 'initials-or-vctcode' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials') or subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientVCT')))}ch-elm-patient-name-representation-initial-or-vctcode-snomedct:If Observation.code is mapped to initials or vctcode in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name family and given must have one character or - in case of a VCT patient - must be masked and the following elements must not be provided: patient.telecom, patient.address.line. {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code = 'initials-or-vctcode' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials') or subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientVCT')))}ch-elm-patient-name-representation-hiv-code-loinc:If Observation.code is mapped to hiv-code in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient representation must follow profile resource profile: CH ELM Patient HIV {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code = 'hiv-code' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientHIV')))}ch-elm-patient-name-representation-hiv-code-snomedct:If Observation.code is mapped to hiv-code in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient representation must follow profile resource profile: CH ELM Patient HIV {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code = 'hiv-code' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientHIV')))}ch-elm-observation-profile-loinc:If Observation.code is mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile', then the observation must be conform to the mapped profile {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).exists() implies conformsTo('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-observation-profile-snomedct:If Observation.code is mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile', then the observation must be conform to the mapped profile {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).exists() implies conformsTo('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code)}</t>
   </si>
   <si>
     <t>Event</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory-strict.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory-strict.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4776" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4856" uniqueCount="669">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.7.0</t>
+    <t>1.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T14:18:34+00:00</t>
+    <t>2025-02-04T09:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -927,7 +927,7 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -992,13 +992,13 @@
 </t>
   </si>
   <si>
-    <t>Concept - reference to a terminology or just  text</t>
-  </si>
-  <si>
-    <t>A concept that may be defined by a formal reference to a terminology or ontology or may be provided by text.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+    <t>Type of observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "name".  In this profile this code represents either a simple laboratory test or a laboratory study with multiple child observations</t>
+  </si>
+  <si>
+    <t>In the context of this Observation-laboratory-uv-ips profile, when the observation plays the role of a grouper of member sub-observations, the code represent the group (for instance a panel code). In case no code is available, at least a text shall be provided.</t>
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
@@ -1007,10 +1007,22 @@
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-laboratory-observation</t>
   </si>
   <si>
-    <t>CE/CNE/CWE</t>
-  </si>
-  <si>
-    <t>CD</t>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>116680003 |Is a|</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -1146,9 +1158,6 @@
     <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
   </si>
   <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
     <t>participation[typeCode=SBJ]</t>
   </si>
   <si>
@@ -1367,7 +1376,7 @@
   </si>
   <si>
     <t>string
-QuantityCodeableConcept</t>
+RatioQuantityCodeableConcept</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -1407,6 +1416,32 @@
     <t>String if required by leading code, see also 'Guidance - Laboratory Result'</t>
   </si>
   <si>
+    <t>Observation.value[x]:valueRatio</t>
+  </si>
+  <si>
+    <t>valueRatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio {http://hl7.eu/fhir/laboratory/StructureDefinition/Ratio-eu-lab}
+</t>
+  </si>
+  <si>
+    <t>Ratio if required by leading code, see also 'Guidance - Laboratory Result'</t>
+  </si>
+  <si>
+    <t>A measured ratio (or a ratio that can potentially be measured) and uncertainty of the measurement. This profile imposes that the code system for units be UCUM.</t>
+  </si>
+  <si>
+    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
+  </si>
+  <si>
+    <t>RTO</t>
+  </si>
+  <si>
     <t>Observation.value[x]:valueQuantity</t>
   </si>
   <si>
@@ -1449,6 +1484,16 @@
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-coded-values-laboratory</t>
   </si>
   <si>
+    <t>Observation.value[x]:valueBoolean</t>
+  </si>
+  <si>
+    <t>valueBoolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
     <t>Observation.value[x]:valueRange</t>
   </si>
   <si>
@@ -1478,32 +1523,6 @@
     <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueRatio</t>
-  </si>
-  <si>
-    <t>valueRatio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio {http://hl7.eu/fhir/laboratory/StructureDefinition/Ratio-eu-lab}
-</t>
-  </si>
-  <si>
-    <t>A measured ratio using UCUM</t>
-  </si>
-  <si>
-    <t>A measured ratio (or a ratio that can potentially be measured) and uncertainty of the measurement. This profile imposes that the code system for units be UCUM.</t>
-  </si>
-  <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
-  </si>
-  <si>
-    <t>RTO</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueTime</t>
   </si>
   <si>
@@ -1566,6 +1585,12 @@
 </t>
   </si>
   <si>
+    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
+  </si>
+  <si>
+    <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
+  </si>
+  <si>
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
   </si>
   <si>
@@ -1573,6 +1598,18 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+  </si>
+  <si>
+    <t>&lt; 260245000 |Findings values|</t>
+  </si>
+  <si>
+    <t>OBX-8</t>
+  </si>
+  <si>
+    <t>interpretationCode</t>
+  </si>
+  <si>
+    <t>363713009 |Has interpretation|</t>
   </si>
   <si>
     <t>Observation.note</t>
@@ -1835,9 +1872,6 @@
     <t>OBX-10</t>
   </si>
   <si>
-    <t>interpretationCode</t>
-  </si>
-  <si>
     <t>Observation.referenceRange.appliesTo</t>
   </si>
   <si>
@@ -2010,12 +2044,6 @@
 &lt; 386053000 |Evaluation procedure|</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
     <t>Observation.component.value[x]</t>
   </si>
   <si>
@@ -2035,10 +2063,16 @@
     <t>Observation.component.value[x]:valueString</t>
   </si>
   <si>
+    <t>Observation.component.value[x]:valueBoolean</t>
+  </si>
+  <si>
     <t>Observation.component.value[x]:valueRange</t>
   </si>
   <si>
     <t>Observation.component.value[x]:valueRatio</t>
+  </si>
+  <si>
+    <t>A measured ratio using UCUM</t>
   </si>
   <si>
     <t>Observation.component.value[x]:valueTime</t>
@@ -2079,21 +2113,6 @@
   </si>
   <si>
     <t>High, low, normal, etc.</t>
-  </si>
-  <si>
-    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
-  </si>
-  <si>
-    <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
-  </si>
-  <si>
-    <t>&lt; 260245000 |Findings values|</t>
-  </si>
-  <si>
-    <t>OBX-8</t>
-  </si>
-  <si>
-    <t>363713009 |Has interpretation|</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
@@ -2409,7 +2428,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP124"/>
+  <dimension ref="A1:AP126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8112,7 +8131,7 @@
         <v>83</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>309</v>
@@ -8183,36 +8202,36 @@
         <v>94</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>83</v>
+        <v>315</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>83</v>
+        <v>316</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>83</v>
+        <v>319</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>83</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8235,19 +8254,19 @@
         <v>95</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -8296,7 +8315,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8311,19 +8330,19 @@
         <v>106</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>83</v>
@@ -8331,10 +8350,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8449,10 +8468,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8569,10 +8588,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8598,13 +8617,13 @@
         <v>159</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8654,7 +8673,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8663,7 +8682,7 @@
         <v>94</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>106</v>
@@ -8689,10 +8708,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8718,13 +8737,13 @@
         <v>108</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8750,13 +8769,13 @@
         <v>83</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>83</v>
@@ -8774,7 +8793,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8809,10 +8828,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8838,13 +8857,13 @@
         <v>243</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8894,7 +8913,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8918,7 +8937,7 @@
         <v>83</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>83</v>
@@ -8929,10 +8948,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8958,13 +8977,13 @@
         <v>159</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9014,7 +9033,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -9049,10 +9068,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9075,16 +9094,16 @@
         <v>95</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9134,7 +9153,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -9155,13 +9174,13 @@
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>359</v>
+        <v>317</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>83</v>
@@ -9169,14 +9188,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -9195,19 +9214,19 @@
         <v>95</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
@@ -9256,7 +9275,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -9271,19 +9290,19 @@
         <v>106</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>83</v>
@@ -9291,14 +9310,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9317,19 +9336,19 @@
         <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
@@ -9366,17 +9385,17 @@
         <v>83</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9391,19 +9410,19 @@
         <v>106</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>83</v>
@@ -9411,10 +9430,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9529,10 +9548,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9649,13 +9668,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>83</v>
@@ -9677,13 +9696,13 @@
         <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9758,7 +9777,7 @@
         <v>83</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>83</v>
@@ -9769,16 +9788,16 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9797,19 +9816,19 @@
         <v>95</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>83</v>
@@ -9858,7 +9877,7 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9870,22 +9889,22 @@
         <v>83</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>83</v>
@@ -9893,10 +9912,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10011,10 +10030,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10131,13 +10150,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>83</v>
@@ -10159,13 +10178,13 @@
         <v>83</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10240,7 +10259,7 @@
         <v>83</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>83</v>
@@ -10251,10 +10270,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10277,16 +10296,16 @@
         <v>95</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10336,7 +10355,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10357,13 +10376,13 @@
         <v>83</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>83</v>
@@ -10371,10 +10390,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10397,17 +10416,17 @@
         <v>95</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>83</v>
@@ -10456,7 +10475,7 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -10471,19 +10490,19 @@
         <v>106</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>83</v>
@@ -10491,10 +10510,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10609,10 +10628,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10729,13 +10748,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>83</v>
@@ -10757,13 +10776,13 @@
         <v>83</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10829,7 +10848,7 @@
         <v>145</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>83</v>
@@ -10849,10 +10868,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10878,13 +10897,13 @@
         <v>159</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10934,7 +10953,7 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -10943,7 +10962,7 @@
         <v>94</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>106</v>
@@ -10969,10 +10988,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10998,13 +11017,13 @@
         <v>108</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11030,13 +11049,13 @@
         <v>83</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>83</v>
@@ -11054,7 +11073,7 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -11089,10 +11108,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11118,13 +11137,13 @@
         <v>243</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11174,7 +11193,7 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -11198,7 +11217,7 @@
         <v>83</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>83</v>
@@ -11209,10 +11228,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11238,13 +11257,13 @@
         <v>159</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11294,7 +11313,7 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -11329,10 +11348,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11355,19 +11374,19 @@
         <v>95</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>83</v>
@@ -11404,17 +11423,17 @@
         <v>83</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AC75" s="2"/>
       <c r="AD75" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -11423,7 +11442,7 @@
         <v>94</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>106</v>
@@ -11432,30 +11451,30 @@
         <v>83</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>83</v>
@@ -11480,16 +11499,16 @@
         <v>159</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>83</v>
@@ -11538,7 +11557,7 @@
         <v>83</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -11547,7 +11566,7 @@
         <v>94</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>106</v>
@@ -11556,30 +11575,30 @@
         <v>83</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>83</v>
@@ -11601,19 +11620,19 @@
         <v>83</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>83</v>
@@ -11662,7 +11681,7 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
@@ -11674,7 +11693,7 @@
         <v>156</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>83</v>
@@ -11683,10 +11702,10 @@
         <v>83</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>449</v>
+        <v>137</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>83</v>
@@ -11697,13 +11716,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>83</v>
@@ -11725,19 +11744,19 @@
         <v>83</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>309</v>
+        <v>455</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>311</v>
+        <v>457</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>312</v>
+        <v>458</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>83</v>
@@ -11762,11 +11781,13 @@
         <v>83</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="Y78" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z78" t="s" s="2">
-        <v>454</v>
+        <v>83</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>83</v>
@@ -11784,7 +11805,7 @@
         <v>83</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
@@ -11796,7 +11817,7 @@
         <v>156</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>106</v>
+        <v>459</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>83</v>
@@ -11805,10 +11826,10 @@
         <v>83</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>315</v>
+        <v>460</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>316</v>
+        <v>461</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>83</v>
@@ -11819,13 +11840,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>83</v>
@@ -11844,22 +11865,22 @@
         <v>83</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>457</v>
+        <v>309</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>83</v>
@@ -11884,13 +11905,11 @@
         <v>83</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="Y79" s="2"/>
       <c r="Z79" t="s" s="2">
-        <v>83</v>
+        <v>465</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>83</v>
@@ -11908,7 +11927,7 @@
         <v>83</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
@@ -11917,39 +11936,39 @@
         <v>94</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>156</v>
+        <v>437</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>461</v>
+        <v>106</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>83</v>
+        <v>438</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>83</v>
+        <v>441</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>83</v>
@@ -11968,22 +11987,22 @@
         <v>83</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>468</v>
+        <v>434</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>469</v>
+        <v>435</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>83</v>
@@ -12032,7 +12051,7 @@
         <v>83</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
@@ -12041,39 +12060,39 @@
         <v>94</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>156</v>
+        <v>437</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>470</v>
+        <v>106</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>83</v>
+        <v>438</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>137</v>
+        <v>439</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>83</v>
+        <v>441</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>83</v>
@@ -12092,22 +12111,22 @@
         <v>83</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="N81" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="L81" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>432</v>
-      </c>
       <c r="O81" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>83</v>
@@ -12156,7 +12175,7 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
@@ -12165,39 +12184,39 @@
         <v>94</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>434</v>
+        <v>156</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>106</v>
+        <v>475</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>435</v>
+        <v>83</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>437</v>
+        <v>477</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>438</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>83</v>
@@ -12219,19 +12238,19 @@
         <v>95</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>374</v>
+        <v>480</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>83</v>
@@ -12280,7 +12299,7 @@
         <v>83</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
@@ -12289,7 +12308,7 @@
         <v>94</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>106</v>
@@ -12298,30 +12317,30 @@
         <v>83</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>83</v>
@@ -12343,19 +12362,19 @@
         <v>95</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>479</v>
+        <v>377</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>83</v>
@@ -12404,7 +12423,7 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -12413,7 +12432,7 @@
         <v>94</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>106</v>
@@ -12422,29 +12441,31 @@
         <v>83</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="C84" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="D84" t="s" s="2">
         <v>83</v>
       </c>
@@ -12462,22 +12483,22 @@
         <v>83</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>284</v>
+        <v>485</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>481</v>
+        <v>433</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>482</v>
+        <v>434</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>483</v>
+        <v>435</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>484</v>
+        <v>436</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>83</v>
@@ -12502,13 +12523,13 @@
         <v>83</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>339</v>
+        <v>83</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>485</v>
+        <v>83</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>486</v>
+        <v>83</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>83</v>
@@ -12526,7 +12547,7 @@
         <v>83</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>480</v>
+        <v>431</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
@@ -12535,7 +12556,7 @@
         <v>94</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>487</v>
+        <v>437</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>106</v>
@@ -12544,35 +12565,35 @@
         <v>83</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>83</v>
+        <v>438</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>137</v>
+        <v>439</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>488</v>
+        <v>440</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>83</v>
+        <v>441</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>490</v>
+        <v>83</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>94</v>
@@ -12587,19 +12608,19 @@
         <v>83</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>311</v>
+        <v>488</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>312</v>
+        <v>489</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>83</v>
@@ -12624,40 +12645,40 @@
         <v>83</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Y85" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="Z85" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="Z85" t="s" s="2">
+      <c r="AA85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI85" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>106</v>
@@ -12669,10 +12690,10 @@
         <v>83</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>315</v>
+        <v>137</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>316</v>
+        <v>494</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>83</v>
@@ -12683,21 +12704,21 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>83</v>
+        <v>496</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>83</v>
@@ -12709,10 +12730,10 @@
         <v>83</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>495</v>
+        <v>309</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>497</v>
@@ -12746,13 +12767,13 @@
         <v>83</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>83</v>
+        <v>343</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>83</v>
+        <v>500</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>83</v>
+        <v>501</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>83</v>
@@ -12770,7 +12791,7 @@
         <v>83</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>81</v>
@@ -12788,27 +12809,27 @@
         <v>83</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>83</v>
+        <v>502</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>83</v>
+        <v>505</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12819,7 +12840,7 @@
         <v>81</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>83</v>
@@ -12831,18 +12852,20 @@
         <v>83</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>284</v>
+        <v>507</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="O87" s="2"/>
+        <v>510</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>511</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>83</v>
       </c>
@@ -12866,37 +12889,37 @@
         <v>83</v>
       </c>
       <c r="X87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF87" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="Y87" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>502</v>
-      </c>
       <c r="AG87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>83</v>
@@ -12908,27 +12931,27 @@
         <v>83</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>509</v>
+        <v>83</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>512</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12954,17 +12977,15 @@
         <v>284</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O88" t="s" s="2">
         <v>517</v>
       </c>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>83</v>
       </c>
@@ -12988,11 +13009,13 @@
         <v>83</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="Y88" s="2"/>
+        <v>518</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>519</v>
+      </c>
       <c r="Z88" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>83</v>
@@ -13010,7 +13033,7 @@
         <v>83</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
@@ -13028,27 +13051,27 @@
         <v>83</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>83</v>
+        <v>521</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>83</v>
+        <v>524</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13056,7 +13079,7 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>94</v>
@@ -13071,18 +13094,20 @@
         <v>83</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>522</v>
+        <v>284</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>83</v>
       </c>
@@ -13106,13 +13131,11 @@
         <v>83</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="Y89" s="2"/>
       <c r="Z89" t="s" s="2">
-        <v>83</v>
+        <v>530</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>83</v>
@@ -13130,7 +13153,7 @@
         <v>83</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>81</v>
@@ -13148,27 +13171,27 @@
         <v>83</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>526</v>
+        <v>83</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>529</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13176,7 +13199,7 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>94</v>
@@ -13191,16 +13214,16 @@
         <v>83</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13250,7 +13273,7 @@
         <v>83</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
@@ -13268,27 +13291,27 @@
         <v>83</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13299,7 +13322,7 @@
         <v>81</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>83</v>
@@ -13311,20 +13334,18 @@
         <v>83</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>544</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>83</v>
       </c>
@@ -13372,45 +13393,45 @@
         <v>83</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>545</v>
+        <v>106</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>83</v>
+        <v>547</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>83</v>
+        <v>550</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13421,7 +13442,7 @@
         <v>81</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>83</v>
@@ -13433,16 +13454,20 @@
         <v>83</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>159</v>
+        <v>552</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>160</v>
+        <v>553</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
+        <v>554</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>556</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>83</v>
       </c>
@@ -13490,19 +13515,19 @@
         <v>83</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>162</v>
+        <v>551</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>83</v>
+        <v>557</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>83</v>
@@ -13511,10 +13536,10 @@
         <v>83</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>83</v>
+        <v>558</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>163</v>
+        <v>559</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>83</v>
@@ -13525,21 +13550,21 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>83</v>
@@ -13551,17 +13576,15 @@
         <v>83</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>83</v>
@@ -13610,19 +13633,19 @@
         <v>83</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>83</v>
@@ -13645,14 +13668,14 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>551</v>
+        <v>166</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13665,26 +13688,24 @@
         <v>83</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>552</v>
+        <v>167</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>553</v>
+        <v>168</v>
       </c>
       <c r="N94" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="O94" t="s" s="2">
-        <v>240</v>
-      </c>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>83</v>
       </c>
@@ -13732,7 +13753,7 @@
         <v>83</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>554</v>
+        <v>171</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>81</v>
@@ -13756,7 +13777,7 @@
         <v>83</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>83</v>
@@ -13767,42 +13788,46 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>83</v>
+        <v>563</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>556</v>
+        <v>139</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
+        <v>565</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>83</v>
       </c>
@@ -13850,19 +13875,19 @@
         <v>83</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>559</v>
+        <v>83</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>83</v>
@@ -13871,10 +13896,10 @@
         <v>83</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>560</v>
+        <v>83</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>561</v>
+        <v>137</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>83</v>
@@ -13885,10 +13910,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13911,13 +13936,13 @@
         <v>83</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13968,7 +13993,7 @@
         <v>83</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>81</v>
@@ -13977,7 +14002,7 @@
         <v>94</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>106</v>
@@ -13989,10 +14014,10 @@
         <v>83</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>83</v>
@@ -14003,10 +14028,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14029,20 +14054,16 @@
         <v>83</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>284</v>
+        <v>568</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>570</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>83</v>
       </c>
@@ -14066,40 +14087,40 @@
         <v>83</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="Y97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI97" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>106</v>
@@ -14108,13 +14129,13 @@
         <v>83</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>573</v>
+        <v>83</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>83</v>
@@ -14125,10 +14146,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14139,7 +14160,7 @@
         <v>81</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>83</v>
@@ -14154,16 +14175,16 @@
         <v>284</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>83</v>
@@ -14188,13 +14209,13 @@
         <v>83</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>506</v>
+        <v>118</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>83</v>
@@ -14212,13 +14233,13 @@
         <v>83</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>83</v>
@@ -14230,13 +14251,13 @@
         <v>83</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>575</v>
+        <v>504</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>83</v>
@@ -14247,10 +14268,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14261,7 +14282,7 @@
         <v>81</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>83</v>
@@ -14273,17 +14294,19 @@
         <v>83</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>584</v>
+        <v>284</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N99" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>590</v>
+      </c>
       <c r="O99" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>83</v>
@@ -14308,13 +14331,13 @@
         <v>83</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>83</v>
+        <v>518</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>83</v>
+        <v>592</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>83</v>
+        <v>593</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>83</v>
@@ -14332,13 +14355,13 @@
         <v>83</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>83</v>
@@ -14350,13 +14373,13 @@
         <v>83</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>83</v>
+        <v>585</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>83</v>
+        <v>586</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>588</v>
+        <v>504</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>83</v>
@@ -14367,10 +14390,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14393,16 +14416,18 @@
         <v>83</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>159</v>
+        <v>595</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>598</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>83</v>
       </c>
@@ -14450,7 +14475,7 @@
         <v>83</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>81</v>
@@ -14471,10 +14496,10 @@
         <v>83</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>560</v>
+        <v>83</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>83</v>
@@ -14485,10 +14510,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14499,7 +14524,7 @@
         <v>81</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>83</v>
@@ -14508,20 +14533,18 @@
         <v>83</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>594</v>
+        <v>159</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>597</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>83</v>
@@ -14570,13 +14593,13 @@
         <v>83</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>83</v>
@@ -14591,10 +14614,10 @@
         <v>83</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>598</v>
+        <v>572</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>83</v>
@@ -14605,10 +14628,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14631,16 +14654,16 @@
         <v>95</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14690,7 +14713,7 @@
         <v>83</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>81</v>
@@ -14711,10 +14734,10 @@
         <v>83</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>83</v>
@@ -14725,10 +14748,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14751,20 +14774,18 @@
         <v>95</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>540</v>
+        <v>612</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>610</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>83</v>
       </c>
@@ -14812,7 +14833,7 @@
         <v>83</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>81</v>
@@ -14833,10 +14854,10 @@
         <v>83</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>83</v>
@@ -14847,10 +14868,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14861,7 +14882,7 @@
         <v>81</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>83</v>
@@ -14870,19 +14891,23 @@
         <v>83</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>159</v>
+        <v>552</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>160</v>
+        <v>618</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
+        <v>619</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>621</v>
+      </c>
       <c r="P104" t="s" s="2">
         <v>83</v>
       </c>
@@ -14930,19 +14955,19 @@
         <v>83</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>162</v>
+        <v>617</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>83</v>
@@ -14951,10 +14976,10 @@
         <v>83</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>83</v>
+        <v>622</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>163</v>
+        <v>623</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>83</v>
@@ -14965,10 +14990,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14979,7 +15004,7 @@
         <v>81</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>83</v>
@@ -14991,13 +15016,13 @@
         <v>83</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -15036,29 +15061,31 @@
         <v>83</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AC105" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD105" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>83</v>
@@ -15070,7 +15097,7 @@
         <v>83</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>83</v>
@@ -15081,14 +15108,12 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
         <v>83</v>
       </c>
@@ -15097,7 +15122,7 @@
         <v>81</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>83</v>
@@ -15109,13 +15134,13 @@
         <v>83</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>229</v>
+        <v>139</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -15154,16 +15179,14 @@
         <v>83</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="AC106" s="2"/>
       <c r="AD106" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>171</v>
@@ -15175,7 +15198,7 @@
         <v>82</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>145</v>
@@ -15190,7 +15213,7 @@
         <v>83</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>83</v>
@@ -15201,12 +15224,14 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="C107" s="2"/>
+        <v>625</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="D107" t="s" s="2">
         <v>83</v>
       </c>
@@ -15227,13 +15252,13 @@
         <v>83</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>159</v>
+        <v>229</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15284,19 +15309,19 @@
         <v>83</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>83</v>
@@ -15308,7 +15333,7 @@
         <v>83</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>83</v>
@@ -15319,10 +15344,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15333,7 +15358,7 @@
         <v>81</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>83</v>
@@ -15345,13 +15370,13 @@
         <v>83</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -15390,31 +15415,31 @@
         <v>83</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="AC108" t="s" s="2">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="AD108" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>83</v>
@@ -15426,7 +15451,7 @@
         <v>83</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>83</v>
@@ -15437,10 +15462,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15448,10 +15473,10 @@
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>83</v>
@@ -15463,24 +15488,22 @@
         <v>83</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="N109" s="2"/>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" t="s" s="2">
-        <v>234</v>
+        <v>83</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>83</v>
@@ -15510,31 +15533,31 @@
         <v>83</v>
       </c>
       <c r="AB109" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="AC109" t="s" s="2">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="AD109" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>83</v>
@@ -15546,7 +15569,7 @@
         <v>83</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>83</v>
@@ -15557,10 +15580,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15583,22 +15606,24 @@
         <v>83</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>236</v>
+        <v>108</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N110" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q110" s="2"/>
       <c r="R110" t="s" s="2">
-        <v>83</v>
+        <v>234</v>
       </c>
       <c r="S110" t="s" s="2">
         <v>83</v>
@@ -15640,10 +15665,10 @@
         <v>83</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>94</v>
@@ -15652,7 +15677,7 @@
         <v>83</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>83</v>
@@ -15675,46 +15700,42 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>551</v>
+        <v>83</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>139</v>
+        <v>236</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>552</v>
+        <v>190</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>83</v>
       </c>
@@ -15762,19 +15783,19 @@
         <v>83</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>554</v>
+        <v>192</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>83</v>
@@ -15797,45 +15818,45 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>83</v>
+        <v>563</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J112" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>284</v>
+        <v>139</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>626</v>
+        <v>564</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>627</v>
+        <v>565</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>628</v>
+        <v>169</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>313</v>
+        <v>240</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>83</v>
@@ -15860,13 +15881,13 @@
         <v>83</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>506</v>
+        <v>83</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>629</v>
+        <v>83</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>630</v>
+        <v>83</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>83</v>
@@ -15884,34 +15905,34 @@
         <v>83</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>625</v>
+        <v>566</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>631</v>
+        <v>83</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>359</v>
+        <v>83</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>632</v>
+        <v>137</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>633</v>
+        <v>83</v>
       </c>
       <c r="AP112" t="s" s="2">
         <v>83</v>
@@ -15919,10 +15940,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15930,7 +15951,7 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>94</v>
@@ -15945,19 +15966,19 @@
         <v>95</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>635</v>
+        <v>284</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>431</v>
+        <v>638</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>433</v>
+        <v>313</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>83</v>
@@ -15982,32 +16003,34 @@
         <v>83</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>83</v>
+        <v>518</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>83</v>
+        <v>640</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>83</v>
+        <v>641</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB113" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AC113" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD113" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>94</v>
@@ -16022,31 +16045,29 @@
         <v>83</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>436</v>
+        <v>317</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>437</v>
+        <v>318</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>83</v>
+        <v>319</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>438</v>
+        <v>83</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="C114" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
         <v>83</v>
       </c>
@@ -16067,19 +16088,19 @@
         <v>95</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>159</v>
+        <v>644</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>83</v>
@@ -16116,19 +16137,17 @@
         <v>83</v>
       </c>
       <c r="AB114" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="AC114" s="2"/>
       <c r="AD114" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>81</v>
@@ -16146,30 +16165,30 @@
         <v>83</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>83</v>
@@ -16188,22 +16207,22 @@
         <v>83</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>457</v>
+        <v>159</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>458</v>
+        <v>645</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>460</v>
+        <v>646</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>83</v>
@@ -16252,7 +16271,7 @@
         <v>83</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>81</v>
@@ -16261,39 +16280,39 @@
         <v>94</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>461</v>
+        <v>106</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>83</v>
+        <v>647</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP115" t="s" s="2">
-        <v>83</v>
+        <v>441</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D116" t="s" s="2">
         <v>83</v>
@@ -16312,22 +16331,22 @@
         <v>83</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>467</v>
+        <v>645</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>468</v>
+        <v>434</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>469</v>
+        <v>646</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>83</v>
@@ -16376,7 +16395,7 @@
         <v>83</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>81</v>
@@ -16385,39 +16404,39 @@
         <v>94</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>470</v>
+        <v>106</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>83</v>
+        <v>647</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>137</v>
+        <v>439</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP116" t="s" s="2">
-        <v>83</v>
+        <v>441</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>83</v>
@@ -16436,22 +16455,22 @@
         <v>83</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="N117" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="L117" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>637</v>
-      </c>
       <c r="O117" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>83</v>
@@ -16500,7 +16519,7 @@
         <v>83</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>81</v>
@@ -16509,39 +16528,39 @@
         <v>94</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>106</v>
+        <v>475</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>638</v>
+        <v>83</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>437</v>
+        <v>477</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP117" t="s" s="2">
-        <v>438</v>
+        <v>83</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="B118" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="B118" t="s" s="2">
-        <v>634</v>
-      </c>
       <c r="C118" t="s" s="2">
-        <v>476</v>
+        <v>446</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>83</v>
@@ -16560,22 +16579,22 @@
         <v>83</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>374</v>
+        <v>447</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>637</v>
+        <v>450</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>83</v>
@@ -16624,7 +16643,7 @@
         <v>83</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>81</v>
@@ -16633,39 +16652,39 @@
         <v>94</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>106</v>
+        <v>451</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>638</v>
+        <v>83</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>436</v>
+        <v>137</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP118" t="s" s="2">
-        <v>438</v>
+        <v>83</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D119" t="s" s="2">
         <v>83</v>
@@ -16687,19 +16706,19 @@
         <v>95</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>83</v>
@@ -16748,7 +16767,7 @@
         <v>83</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>81</v>
@@ -16766,30 +16785,30 @@
         <v>83</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP119" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>443</v>
+        <v>482</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>83</v>
@@ -16808,22 +16827,22 @@
         <v>83</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>444</v>
+        <v>377</v>
       </c>
       <c r="L120" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N120" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="M120" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>447</v>
-      </c>
       <c r="O120" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>83</v>
@@ -16872,7 +16891,7 @@
         <v>83</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>81</v>
@@ -16881,39 +16900,39 @@
         <v>94</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>448</v>
+        <v>106</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>83</v>
+        <v>647</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP120" t="s" s="2">
-        <v>83</v>
+        <v>441</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>452</v>
+        <v>484</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>83</v>
@@ -16935,19 +16954,19 @@
         <v>95</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>284</v>
+        <v>485</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>83</v>
@@ -16972,11 +16991,13 @@
         <v>83</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="Y121" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z121" t="s" s="2">
-        <v>648</v>
+        <v>83</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>83</v>
@@ -16994,7 +17015,7 @@
         <v>83</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>81</v>
@@ -17012,29 +17033,31 @@
         <v>83</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP121" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="C122" s="2"/>
+        <v>643</v>
+      </c>
+      <c r="C122" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="D122" t="s" s="2">
         <v>83</v>
       </c>
@@ -17055,19 +17078,19 @@
         <v>83</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>284</v>
+        <v>455</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>651</v>
+        <v>457</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>652</v>
+        <v>458</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>484</v>
+        <v>436</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>83</v>
@@ -17092,13 +17115,13 @@
         <v>83</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>339</v>
+        <v>83</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>485</v>
+        <v>83</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>486</v>
+        <v>83</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>83</v>
@@ -17116,7 +17139,7 @@
         <v>83</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>81</v>
@@ -17125,10 +17148,10 @@
         <v>94</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>487</v>
+        <v>156</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>106</v>
+        <v>459</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>83</v>
@@ -17137,10 +17160,10 @@
         <v>83</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>137</v>
+        <v>460</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>83</v>
@@ -17151,21 +17174,23 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="C123" s="2"/>
+        <v>643</v>
+      </c>
+      <c r="C123" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="D123" t="s" s="2">
-        <v>490</v>
+        <v>83</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>83</v>
@@ -17174,22 +17199,22 @@
         <v>83</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K123" t="s" s="2">
         <v>284</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>655</v>
+        <v>434</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>491</v>
+        <v>436</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>83</v>
@@ -17214,13 +17239,11 @@
         <v>83</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="Y123" s="2"/>
       <c r="Z123" t="s" s="2">
-        <v>493</v>
+        <v>659</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>83</v>
@@ -17238,13 +17261,13 @@
         <v>83</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>83</v>
@@ -17256,19 +17279,19 @@
         <v>83</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>658</v>
+        <v>439</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>575</v>
+        <v>440</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP123" t="s" s="2">
-        <v>659</v>
+        <v>441</v>
       </c>
     </row>
     <row r="124">
@@ -17287,7 +17310,7 @@
         <v>81</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>83</v>
@@ -17299,7 +17322,7 @@
         <v>83</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>84</v>
+        <v>284</v>
       </c>
       <c r="L124" t="s" s="2">
         <v>661</v>
@@ -17308,10 +17331,10 @@
         <v>662</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>543</v>
+        <v>663</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>544</v>
+        <v>490</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>83</v>
@@ -17336,13 +17359,13 @@
         <v>83</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>83</v>
+        <v>343</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>83</v>
+        <v>491</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>83</v>
+        <v>492</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>83</v>
@@ -17366,10 +17389,10 @@
         <v>81</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>83</v>
+        <v>493</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>106</v>
@@ -17381,15 +17404,259 @@
         <v>83</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>546</v>
+        <v>137</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>547</v>
+        <v>494</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP124" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="O125" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="P125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q125" s="2"/>
+      <c r="R125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AN125" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AO125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP125" t="s" s="2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="C126" s="2"/>
+      <c r="D126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="O126" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="P126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q126" s="2"/>
+      <c r="R126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AN126" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AO126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP126" t="s" s="2">
         <v>83</v>
       </c>
     </row>
